--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H2">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I2">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J2">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>46.75572483725045</v>
+        <v>39.80492712658801</v>
       </c>
       <c r="R2">
-        <v>420.801523535254</v>
+        <v>358.2443441392921</v>
       </c>
       <c r="S2">
-        <v>0.003164110458104651</v>
+        <v>0.003375050944551065</v>
       </c>
       <c r="T2">
-        <v>0.003473356122031255</v>
+        <v>0.003493949686148975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H3">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I3">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J3">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>16.40888339396922</v>
+        <v>14.02342321383367</v>
       </c>
       <c r="R3">
-        <v>147.679950545723</v>
+        <v>126.210808924503</v>
       </c>
       <c r="S3">
-        <v>0.001110441977605987</v>
+        <v>0.00118904294468798</v>
       </c>
       <c r="T3">
-        <v>0.001218971490454422</v>
+        <v>0.001230931411603574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H4">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I4">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J4">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.3470005121944444</v>
+        <v>0.5586131636256667</v>
       </c>
       <c r="R4">
-        <v>3.12300460975</v>
+        <v>5.027518472631001</v>
       </c>
       <c r="S4">
-        <v>2.348264203846485E-05</v>
+        <v>4.736468627458264E-05</v>
       </c>
       <c r="T4">
-        <v>2.577772791618285E-05</v>
+        <v>4.903328378222019E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H5">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I5">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J5">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>21.31506345498583</v>
+        <v>5.672010000479499</v>
       </c>
       <c r="R5">
-        <v>127.890380729915</v>
+        <v>34.032060002877</v>
       </c>
       <c r="S5">
-        <v>0.001442458980752506</v>
+        <v>0.0004809284702052498</v>
       </c>
       <c r="T5">
-        <v>0.001055625543190181</v>
+        <v>0.0003319139780189305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.36533633333333</v>
+        <v>13.131583</v>
       </c>
       <c r="H6">
-        <v>46.096009</v>
+        <v>39.394749</v>
       </c>
       <c r="I6">
-        <v>0.005906911296689244</v>
+        <v>0.005137566080660421</v>
       </c>
       <c r="J6">
-        <v>0.005956412980416435</v>
+        <v>0.005152598994293116</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>2.459129888132</v>
+        <v>0.5328358661966668</v>
       </c>
       <c r="R6">
-        <v>22.132168993188</v>
+        <v>4.795522795770001</v>
       </c>
       <c r="S6">
-        <v>0.000166417238187634</v>
+        <v>4.517903494154432E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001826820968243942</v>
+        <v>4.677063473941704E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I7">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J7">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>7662.283770711311</v>
+        <v>7632.824185768392</v>
       </c>
       <c r="R7">
-        <v>68960.5539364018</v>
+        <v>68695.41767191554</v>
       </c>
       <c r="S7">
-        <v>0.5185314161263451</v>
+        <v>0.647185470176692</v>
       </c>
       <c r="T7">
-        <v>0.5692103017626094</v>
+        <v>0.669984989131715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I8">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J8">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>2689.072222979111</v>
@@ -948,10 +948,10 @@
         <v>24201.650006812</v>
       </c>
       <c r="S8">
-        <v>0.1819781764253211</v>
+        <v>0.2280058375001887</v>
       </c>
       <c r="T8">
-        <v>0.1997638898932735</v>
+        <v>0.236038192448643</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I9">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J9">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>56.86611430516666</v>
+        <v>107.1172936016393</v>
       </c>
       <c r="R9">
-        <v>511.7950287465</v>
+        <v>964.0556424147541</v>
       </c>
       <c r="S9">
-        <v>0.003848313069919536</v>
+        <v>0.00908245157184278</v>
       </c>
       <c r="T9">
-        <v>0.004224429563342324</v>
+        <v>0.009402414760623536</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7554.170166</v>
       </c>
       <c r="I10">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J10">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>3493.092350751034</v>
+        <v>1087.640607302153</v>
       </c>
       <c r="R10">
-        <v>20958.55410450621</v>
+        <v>6525.843643812917</v>
       </c>
       <c r="S10">
-        <v>0.2363888075013034</v>
+        <v>0.09222080591513648</v>
       </c>
       <c r="T10">
-        <v>0.1729949112261499</v>
+        <v>0.06364641821753919</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>7554.170166</v>
       </c>
       <c r="I11">
-        <v>0.9680190120289646</v>
+        <v>0.9851579054959454</v>
       </c>
       <c r="J11">
-        <v>0.9761313009340347</v>
+        <v>0.9880405533247757</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>402.999870015768</v>
+        <v>102.1743482563533</v>
       </c>
       <c r="R11">
-        <v>3626.998830141912</v>
+        <v>919.56913430718</v>
       </c>
       <c r="S11">
-        <v>0.02727229890607537</v>
+        <v>0.008663340332085517</v>
       </c>
       <c r="T11">
-        <v>0.02993776848865943</v>
+        <v>0.008968538766255049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H12">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I12">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J12">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>4.628670808551779</v>
+        <v>3.68170893324</v>
       </c>
       <c r="R12">
-        <v>41.65803727696601</v>
+        <v>33.13538039916001</v>
       </c>
       <c r="S12">
-        <v>0.0003132370584231468</v>
+        <v>0.0003121712840517611</v>
       </c>
       <c r="T12">
-        <v>0.0003438514138260575</v>
+        <v>0.0003231686803715655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H13">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I13">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J13">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>1.624428234851889</v>
+        <v>1.297079689576667</v>
       </c>
       <c r="R13">
-        <v>14.619854113667</v>
+        <v>11.67371720619</v>
       </c>
       <c r="S13">
-        <v>0.0001099302894827627</v>
+        <v>0.0001099790992592876</v>
       </c>
       <c r="T13">
-        <v>0.0001206743724744496</v>
+        <v>0.0001138535227032099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H14">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I14">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J14">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.03435196752777778</v>
+        <v>0.05166825373666668</v>
       </c>
       <c r="R14">
-        <v>0.3091677077500001</v>
+        <v>0.4650142836300001</v>
       </c>
       <c r="S14">
-        <v>2.324708259565183E-06</v>
+        <v>4.380939777195585E-06</v>
       </c>
       <c r="T14">
-        <v>2.551914597233789E-06</v>
+        <v>4.535274699862675E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.521120333333333</v>
+        <v>1.21459</v>
       </c>
       <c r="H15">
-        <v>4.563361</v>
+        <v>3.64377</v>
       </c>
       <c r="I15">
-        <v>0.000584765779652879</v>
+        <v>0.0004751930049796235</v>
       </c>
       <c r="J15">
-        <v>0.0005896662918198867</v>
+        <v>0.0004765834562732061</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>2.110124746005833</v>
+        <v>0.524625753535</v>
       </c>
       <c r="R15">
-        <v>12.660748476035</v>
+        <v>3.14775452121</v>
       </c>
       <c r="S15">
-        <v>0.0001427989363865696</v>
+        <v>4.448290130950658E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001045036335878424</v>
+        <v>3.06999848047271E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.21459</v>
+      </c>
+      <c r="H16">
+        <v>3.64377</v>
+      </c>
+      <c r="I16">
+        <v>0.0004751930049796235</v>
+      </c>
+      <c r="J16">
+        <v>0.0004765834562732061</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>1.521120333333333</v>
-      </c>
-      <c r="H16">
-        <v>4.563361</v>
-      </c>
-      <c r="I16">
-        <v>0.000584765779652879</v>
-      </c>
-      <c r="J16">
-        <v>0.0005896662918198867</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>0.243446182628</v>
+        <v>0.04928401356666667</v>
       </c>
       <c r="R16">
-        <v>2.191015643652</v>
+        <v>0.4435561221000001</v>
       </c>
       <c r="S16">
-        <v>1.647478710083469E-05</v>
+        <v>4.17878058187275E-06</v>
       </c>
       <c r="T16">
-        <v>1.808495733430337E-05</v>
+        <v>4.325993693840914E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H17">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I17">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J17">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>197.3471093086486</v>
+        <v>67.813706906478</v>
       </c>
       <c r="R17">
-        <v>1184.082655851892</v>
+        <v>406.882241438868</v>
       </c>
       <c r="S17">
-        <v>0.01335511436543345</v>
+        <v>0.005749909171303042</v>
       </c>
       <c r="T17">
-        <v>0.009773588049639364</v>
+        <v>0.003968314093528772</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H18">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I18">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J18">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>69.25880661789232</v>
+        <v>23.89102003940617</v>
       </c>
       <c r="R18">
-        <v>415.5528397073539</v>
+        <v>143.346120236437</v>
       </c>
       <c r="S18">
-        <v>0.004686966464498677</v>
+        <v>0.002025714291445756</v>
       </c>
       <c r="T18">
-        <v>0.0034300327330067</v>
+        <v>0.001398051748769646</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H19">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I19">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J19">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>1.464623813416666</v>
+        <v>0.9516819169581667</v>
       </c>
       <c r="R19">
-        <v>8.787742880499998</v>
+        <v>5.710091501749001</v>
       </c>
       <c r="S19">
-        <v>9.911580969714069E-05</v>
+        <v>8.069289870892301E-05</v>
       </c>
       <c r="T19">
-        <v>7.253528997801759E-05</v>
+        <v>5.569040443150894E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H20">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I20">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J20">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>89.96686870354246</v>
+        <v>9.663125937145749</v>
       </c>
       <c r="R20">
-        <v>359.8674748141698</v>
+        <v>38.65250374858299</v>
       </c>
       <c r="S20">
-        <v>0.006088347707979775</v>
+        <v>0.0008193343054683092</v>
       </c>
       <c r="T20">
-        <v>0.002970397745389833</v>
+        <v>0.0003769770704006528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.85419099999999</v>
+        <v>22.3716355</v>
       </c>
       <c r="H21">
-        <v>129.708382</v>
+        <v>44.743271</v>
       </c>
       <c r="I21">
-        <v>0.02493196016962392</v>
+        <v>0.008752619978390915</v>
       </c>
       <c r="J21">
-        <v>0.01676059830285119</v>
+        <v>0.005852153878578699</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N21">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O21">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P21">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q21">
-        <v>10.379524144404</v>
+        <v>0.9077663964716668</v>
       </c>
       <c r="R21">
-        <v>62.27714486642399</v>
+        <v>5.44659837883</v>
       </c>
       <c r="S21">
-        <v>0.0007024158220148716</v>
+        <v>7.696931146488532E-05</v>
       </c>
       <c r="T21">
-        <v>0.0005140444848372773</v>
+        <v>5.312056144811966E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H22">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I22">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J22">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N22">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O22">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P22">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q22">
-        <v>4.411668946814001</v>
+        <v>3.693504482928</v>
       </c>
       <c r="R22">
-        <v>39.70502052132601</v>
+        <v>33.241540346352</v>
       </c>
       <c r="S22">
-        <v>0.0002985518436704573</v>
+        <v>0.0003131714260942117</v>
       </c>
       <c r="T22">
-        <v>0.0003277309334446135</v>
+        <v>0.0003242040561429939</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H23">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I23">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J23">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.203747</v>
       </c>
       <c r="O23">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P23">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q23">
-        <v>1.548271608943</v>
+        <v>1.301235305407556</v>
       </c>
       <c r="R23">
-        <v>13.934444480487</v>
+        <v>11.711117748668</v>
       </c>
       <c r="S23">
-        <v>0.0001047765253751363</v>
+        <v>0.0001103314530041049</v>
       </c>
       <c r="T23">
-        <v>0.0001150169030681975</v>
+        <v>0.0001142182894212073</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H24">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I24">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J24">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N24">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O24">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P24">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q24">
-        <v>0.03274147475</v>
+        <v>0.05183378975955556</v>
       </c>
       <c r="R24">
-        <v>0.29467327275</v>
+        <v>0.466504107836</v>
       </c>
       <c r="S24">
-        <v>2.215721027336267E-06</v>
+        <v>4.394975539869677E-06</v>
       </c>
       <c r="T24">
-        <v>2.43227545210979E-06</v>
+        <v>4.549804924560226E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.449807</v>
+        <v>1.218481333333333</v>
       </c>
       <c r="H25">
-        <v>4.349421</v>
+        <v>3.655444</v>
       </c>
       <c r="I25">
-        <v>0.00055735072506944</v>
+        <v>0.000476715440023584</v>
       </c>
       <c r="J25">
-        <v>0.0005620214908777858</v>
+        <v>0.0004781103460792403</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N25">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O25">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P25">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q25">
-        <v>2.0111976420225</v>
+        <v>0.5263065624353332</v>
       </c>
       <c r="R25">
-        <v>12.067185852135</v>
+        <v>3.157839374612</v>
       </c>
       <c r="S25">
-        <v>0.0001361042207043032</v>
+        <v>4.462541672345619E-05</v>
       </c>
       <c r="T25">
-        <v>9.960428256788522E-05</v>
+        <v>3.079834217157802E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.218481333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.655444</v>
+      </c>
+      <c r="I26">
+        <v>0.000476715440023584</v>
+      </c>
+      <c r="J26">
+        <v>0.0004781103460792403</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>1.449807</v>
-      </c>
-      <c r="H26">
-        <v>4.349421</v>
-      </c>
-      <c r="I26">
-        <v>0.00055735072506944</v>
-      </c>
-      <c r="J26">
-        <v>0.0005620214908777858</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N26">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O26">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P26">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q26">
-        <v>0.232032911508</v>
+        <v>0.04944191090222223</v>
       </c>
       <c r="R26">
-        <v>2.088296203572</v>
+        <v>0.44497719812</v>
       </c>
       <c r="S26">
-        <v>1.570241429220689E-05</v>
+        <v>4.192168661941685E-06</v>
       </c>
       <c r="T26">
-        <v>1.723709634497974E-05</v>
+        <v>4.339853418900919E-06</v>
       </c>
     </row>
   </sheetData>
